--- a/AAII_Financials/Quarterly/ARRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARRT_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6E7184-B360-4462-99E9-FFF681100AA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="ARRT" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>ARRT</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,77 +654,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,8 +776,20 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -834,8 +826,20 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,8 +876,20 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -888,8 +904,12 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,8 +946,20 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -964,8 +996,20 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1002,8 +1046,20 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1040,8 +1096,20 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1053,8 +1121,12 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1091,8 +1163,20 @@
       <c r="N17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1129,8 +1213,20 @@
       <c r="N18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1241,12 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1183,8 +1283,20 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1221,8 +1333,20 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1259,8 +1383,20 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1297,8 +1433,20 @@
       <c r="N23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1335,8 +1483,20 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1373,8 +1533,20 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1411,8 +1583,20 @@
       <c r="N26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1449,8 +1633,20 @@
       <c r="N27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1487,8 +1683,20 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1525,8 +1733,20 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1563,8 +1783,20 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1601,8 +1833,20 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1639,8 +1883,20 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1677,8 +1933,20 @@
       <c r="N33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1715,8 +1983,20 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1753,51 +2033,75 @@
       <c r="N35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1812,8 +2116,12 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1828,8 +2136,12 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1861,13 +2173,25 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1904,8 +2228,20 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1942,25 +2278,37 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
@@ -1968,20 +2316,32 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2018,8 +2378,20 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2051,13 +2423,25 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2094,8 +2478,20 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2132,8 +2528,20 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2170,8 +2578,20 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,8 +2628,20 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,8 +2678,20 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2284,8 +2728,20 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2322,8 +2778,20 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2355,13 +2823,25 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2376,8 +2856,12 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2392,8 +2876,12 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2425,21 +2913,33 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>100</v>
-      </c>
-      <c r="E58" s="3">
-        <v>100</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -2451,33 +2951,45 @@
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2501,24 +3013,36 @@
         <v>0</v>
       </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
@@ -2542,10 +3066,22 @@
         <v>100</v>
       </c>
       <c r="N60" s="3">
+        <v>100</v>
+      </c>
+      <c r="O60" s="3">
+        <v>100</v>
+      </c>
+      <c r="P60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+      <c r="R60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2582,8 +3118,20 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2620,8 +3168,20 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2658,8 +3218,20 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2696,8 +3268,20 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2734,19 +3318,31 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
@@ -2770,10 +3366,22 @@
         <v>100</v>
       </c>
       <c r="N66" s="3">
+        <v>100</v>
+      </c>
+      <c r="O66" s="3">
+        <v>100</v>
+      </c>
+      <c r="P66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>100</v>
+      </c>
+      <c r="R66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2788,8 +3396,12 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2826,8 +3438,20 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2864,8 +3488,20 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2902,8 +3538,20 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2940,22 +3588,34 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-19100</v>
+        <v>-19200</v>
       </c>
       <c r="E72" s="3">
-        <v>-19100</v>
+        <v>-19200</v>
       </c>
       <c r="F72" s="3">
-        <v>-19100</v>
+        <v>-19200</v>
       </c>
       <c r="G72" s="3">
-        <v>-19100</v>
+        <v>-19200</v>
       </c>
       <c r="H72" s="3">
         <v>-19100</v>
@@ -2976,10 +3636,22 @@
         <v>-19100</v>
       </c>
       <c r="N72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="R72" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3016,8 +3688,20 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3054,8 +3738,20 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3092,19 +3788,31 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G76" s="3">
         <v>-100</v>
@@ -3128,10 +3836,22 @@
         <v>-100</v>
       </c>
       <c r="N76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3168,51 +3888,75 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3249,8 +3993,20 @@
       <c r="N81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3265,8 +4021,12 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3303,8 +4063,20 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3341,8 +4113,20 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3379,8 +4163,20 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3417,8 +4213,20 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3455,8 +4263,20 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3493,8 +4313,20 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3523,16 +4355,28 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3547,8 +4391,12 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3585,8 +4433,20 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3623,8 +4483,20 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3661,8 +4533,20 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3699,8 +4583,20 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3715,8 +4611,12 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3753,8 +4653,20 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3791,8 +4703,20 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3829,8 +4753,20 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3867,8 +4803,20 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3900,13 +4848,25 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3943,8 +4903,20 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3973,12 +4945,24 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARRT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>ARRT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1175,8 +1202,11 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1445,8 +1488,11 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1595,8 +1647,11 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1645,8 +1700,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,8 +1965,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1945,8 +2018,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2045,63 +2124,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2185,13 +2272,16 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2310,8 +2406,8 @@
       <c r="H44" s="3">
         <v>0</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -2328,8 +2424,8 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2435,13 +2537,16 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2835,13 +2961,16 @@
         <v>0</v>
       </c>
       <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
         <v>100</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2925,21 +3056,24 @@
         <v>0</v>
       </c>
       <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -2963,7 +3097,7 @@
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2978,60 +3112,66 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
-        <v>100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>100</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3045,7 +3185,7 @@
         <v>200</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
@@ -3078,10 +3218,13 @@
         <v>100</v>
       </c>
       <c r="R60" s="3">
+        <v>100</v>
+      </c>
+      <c r="S60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3345,7 +3503,7 @@
         <v>200</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
@@ -3378,10 +3536,13 @@
         <v>100</v>
       </c>
       <c r="R66" s="3">
+        <v>100</v>
+      </c>
+      <c r="S66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3618,7 +3792,7 @@
         <v>-19200</v>
       </c>
       <c r="H72" s="3">
-        <v>-19100</v>
+        <v>-19200</v>
       </c>
       <c r="I72" s="3">
         <v>-19100</v>
@@ -3648,10 +3822,13 @@
         <v>-19100</v>
       </c>
       <c r="R72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="S72" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,8 +3983,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3815,7 +4001,7 @@
         <v>-200</v>
       </c>
       <c r="G76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H76" s="3">
         <v>-100</v>
@@ -3848,10 +4034,13 @@
         <v>-100</v>
       </c>
       <c r="R76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4005,8 +4200,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4367,16 +4584,19 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4860,13 +5106,16 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4957,12 +5209,15 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARRT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>ARRT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,96 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +806,17 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +868,17 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +930,17 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +960,11 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1016,17 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1078,17 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1140,17 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1202,17 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1229,11 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1205,8 +1285,17 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1258,8 +1347,17 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1377,11 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1433,17 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1495,17 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1557,17 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1491,8 +1619,17 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1681,17 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1743,17 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1650,8 +1805,17 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1703,8 +1867,17 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1929,17 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1991,17 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +2053,17 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2115,17 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,8 +2177,17 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2021,8 +2239,17 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2301,17 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2127,66 +2363,84 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2460,11 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2484,11 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2275,13 +2535,22 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2602,17 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2664,17 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2409,14 +2696,14 @@
       <c r="I44" s="3">
         <v>0</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
@@ -2427,20 +2714,29 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2788,17 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2540,13 +2845,22 @@
         <v>0</v>
       </c>
       <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2912,17 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2974,17 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +3036,17 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +3098,17 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3160,17 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +3222,17 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3284,17 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2964,13 +3341,22 @@
         <v>0</v>
       </c>
       <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
         <v>100</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3376,11 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3400,11 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3059,13 +3451,22 @@
         <v>0</v>
       </c>
       <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="V57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3100,13 +3501,13 @@
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3115,10 +3516,19 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3165,13 +3575,22 @@
         <v>0</v>
       </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3188,13 +3607,13 @@
         <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
@@ -3221,10 +3640,19 @@
         <v>100</v>
       </c>
       <c r="S60" s="3">
+        <v>100</v>
+      </c>
+      <c r="T60" s="3">
+        <v>100</v>
+      </c>
+      <c r="U60" s="3">
+        <v>100</v>
+      </c>
+      <c r="V60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3704,17 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3766,17 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3828,17 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3890,17 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3952,17 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3506,13 +3979,13 @@
         <v>200</v>
       </c>
       <c r="H66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
@@ -3539,10 +4012,19 @@
         <v>100</v>
       </c>
       <c r="S66" s="3">
+        <v>100</v>
+      </c>
+      <c r="T66" s="3">
+        <v>100</v>
+      </c>
+      <c r="U66" s="3">
+        <v>100</v>
+      </c>
+      <c r="V66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +4044,11 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +4100,17 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +4162,17 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4224,17 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +4286,17 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3783,7 +4304,7 @@
         <v>-19200</v>
       </c>
       <c r="E72" s="3">
-        <v>-19200</v>
+        <v>-19100</v>
       </c>
       <c r="F72" s="3">
         <v>-19200</v>
@@ -3795,13 +4316,13 @@
         <v>-19200</v>
       </c>
       <c r="I72" s="3">
-        <v>-19100</v>
+        <v>-19200</v>
       </c>
       <c r="J72" s="3">
-        <v>-19100</v>
+        <v>-19200</v>
       </c>
       <c r="K72" s="3">
-        <v>-19100</v>
+        <v>-19200</v>
       </c>
       <c r="L72" s="3">
         <v>-19100</v>
@@ -3825,10 +4346,19 @@
         <v>-19100</v>
       </c>
       <c r="S72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="T72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="U72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="V72" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4410,17 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4472,17 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4534,17 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4004,13 +4561,13 @@
         <v>-200</v>
       </c>
       <c r="H76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K76" s="3">
         <v>-100</v>
@@ -4037,10 +4594,19 @@
         <v>-100</v>
       </c>
       <c r="S76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4658,84 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4203,8 +4787,17 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4817,11 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4873,17 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4935,17 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4997,17 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +5059,17 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +5121,17 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +5183,17 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4587,16 +5237,25 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5275,11 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +5331,17 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5393,17 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5455,17 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5517,17 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5547,11 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5603,17 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5665,17 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5727,17 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5789,17 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5109,13 +5846,22 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5913,17 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5212,12 +5967,21 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARRT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>ARRT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1294,8 +1321,11 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,8 +1606,11 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1628,8 +1671,11 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1814,8 +1866,11 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1876,8 +1931,11 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,8 +2256,11 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2248,8 +2321,11 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2372,75 +2451,81 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2544,13 +2631,16 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2705,8 +2801,8 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
+      <c r="M44" s="3">
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
@@ -2723,8 +2819,8 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2854,13 +2956,16 @@
         <v>0</v>
       </c>
       <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
         <v>100</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3350,13 +3476,16 @@
         <v>0</v>
       </c>
       <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
         <v>100</v>
       </c>
-      <c r="V54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3460,13 +3591,16 @@
         <v>0</v>
       </c>
       <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3510,7 +3644,7 @@
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3525,10 +3659,13 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3584,13 +3721,16 @@
         <v>0</v>
       </c>
       <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
         <v>100</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3616,7 +3756,7 @@
         <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
@@ -3649,10 +3789,13 @@
         <v>100</v>
       </c>
       <c r="V60" s="3">
+        <v>100</v>
+      </c>
+      <c r="W60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,8 +4116,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3988,7 +4146,7 @@
         <v>200</v>
       </c>
       <c r="K66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
@@ -4021,10 +4179,13 @@
         <v>100</v>
       </c>
       <c r="V66" s="3">
+        <v>100</v>
+      </c>
+      <c r="W66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,8 +4466,11 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4304,10 +4478,10 @@
         <v>-19200</v>
       </c>
       <c r="E72" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-19100</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-19200</v>
       </c>
       <c r="G72" s="3">
         <v>-19200</v>
@@ -4325,7 +4499,7 @@
         <v>-19200</v>
       </c>
       <c r="L72" s="3">
-        <v>-19100</v>
+        <v>-19200</v>
       </c>
       <c r="M72" s="3">
         <v>-19100</v>
@@ -4355,10 +4529,13 @@
         <v>-19100</v>
       </c>
       <c r="V72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="W72" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,8 +4726,11 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4570,7 +4756,7 @@
         <v>-200</v>
       </c>
       <c r="K76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L76" s="3">
         <v>-100</v>
@@ -4603,10 +4789,13 @@
         <v>-100</v>
       </c>
       <c r="V76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4796,8 +4991,11 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5246,16 +5463,19 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5855,13 +6101,16 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5976,12 +6228,15 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARRT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>ARRT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,108 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +830,14 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +901,14 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +972,14 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1141,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1118,20 +1158,20 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1172,31 +1212,37 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1237,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1311,10 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1324,8 +1378,14 @@
       <c r="W17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1389,8 +1449,14 @@
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1480,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,8 +1547,14 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1544,8 +1618,14 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,8 +1689,14 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1674,8 +1760,14 @@
       <c r="W23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1831,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1902,14 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1869,8 +1973,14 @@
       <c r="W26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1934,8 +2044,14 @@
       <c r="W27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2328,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,8 +2399,14 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2324,8 +2470,14 @@
       <c r="W33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2541,14 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2454,78 +2612,90 @@
       <c r="W35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2746,10 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2634,13 +2808,19 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>100</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2884,14 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2955,14 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2804,11 +2996,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
@@ -2822,11 +3014,11 @@
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
@@ -2834,8 +3026,14 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +3097,14 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2959,13 +3163,19 @@
         <v>0</v>
       </c>
       <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
         <v>100</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3239,14 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3094,31 +3310,37 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -3159,8 +3381,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3523,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3594,14 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3665,14 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3479,13 +3731,19 @@
         <v>0</v>
       </c>
       <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
         <v>100</v>
       </c>
-      <c r="W54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3794,10 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3594,18 +3856,24 @@
         <v>0</v>
       </c>
       <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
         <v>100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -3647,10 +3915,10 @@
         <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3662,10 +3930,16 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3724,13 +3998,19 @@
         <v>0</v>
       </c>
       <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
         <v>100</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3759,10 +4039,10 @@
         <v>200</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
@@ -3792,10 +4072,16 @@
         <v>100</v>
       </c>
       <c r="W60" s="3">
+        <v>100</v>
+      </c>
+      <c r="X60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4145,14 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4216,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4429,14 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4149,10 +4465,10 @@
         <v>200</v>
       </c>
       <c r="L66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>100</v>
@@ -4182,10 +4498,16 @@
         <v>100</v>
       </c>
       <c r="W66" s="3">
+        <v>100</v>
+      </c>
+      <c r="X66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,8 +4811,14 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4481,13 +4829,13 @@
         <v>-19200</v>
       </c>
       <c r="F72" s="3">
-        <v>-19100</v>
+        <v>-19200</v>
       </c>
       <c r="G72" s="3">
         <v>-19200</v>
       </c>
       <c r="H72" s="3">
-        <v>-19200</v>
+        <v>-19100</v>
       </c>
       <c r="I72" s="3">
         <v>-19200</v>
@@ -4502,10 +4850,10 @@
         <v>-19200</v>
       </c>
       <c r="M72" s="3">
-        <v>-19100</v>
+        <v>-19200</v>
       </c>
       <c r="N72" s="3">
-        <v>-19100</v>
+        <v>-19200</v>
       </c>
       <c r="O72" s="3">
         <v>-19100</v>
@@ -4532,10 +4880,16 @@
         <v>-19100</v>
       </c>
       <c r="W72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="X72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,8 +5095,14 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4759,10 +5131,10 @@
         <v>-200</v>
       </c>
       <c r="L76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N76" s="3">
         <v>-100</v>
@@ -4792,10 +5164,16 @@
         <v>-100</v>
       </c>
       <c r="W76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5237,90 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4994,8 +5384,14 @@
       <c r="W81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,31 +5415,33 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5084,8 +5482,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5837,14 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5466,16 +5900,22 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,31 +5939,33 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5564,8 +6006,14 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,31 +6148,37 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5759,8 +6219,14 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,13 +6530,19 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -6104,13 +6596,19 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6672,14 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6231,12 +6735,18 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARRT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>ARRT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,111 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -836,8 +839,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -907,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1158,8 +1177,8 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1173,8 +1192,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1218,16 +1237,19 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
+      <c r="E15" s="3">
+        <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
@@ -1244,8 +1266,8 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,8 +1338,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1384,8 +1410,11 @@
       <c r="Y17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1455,8 +1484,11 @@
       <c r="Y18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1553,16 +1586,19 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1624,8 +1660,11 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,8 +1734,11 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1766,8 +1808,11 @@
       <c r="Y23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,8 +1956,11 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1979,8 +2030,11 @@
       <c r="Y26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2050,8 +2104,11 @@
       <c r="Y27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2405,8 +2474,11 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2476,8 +2548,11 @@
       <c r="Y33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,8 +2622,11 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2618,84 +2696,90 @@
       <c r="Y35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,8 +2833,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2814,13 +2900,16 @@
         <v>0</v>
       </c>
       <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
         <v>100</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,13 +3053,16 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -3002,8 +3097,8 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
+      <c r="P44" s="3">
+        <v>0</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
@@ -3020,8 +3115,8 @@
       <c r="U44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="V44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
@@ -3032,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3103,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3169,13 +3270,16 @@
         <v>0</v>
       </c>
       <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
         <v>100</v>
       </c>
-      <c r="Y46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,8 +3349,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3316,16 +3423,19 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
+      <c r="E49" s="3">
+        <v>0</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
@@ -3342,8 +3452,8 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -3387,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3600,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,8 +3793,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3737,13 +3862,16 @@
         <v>0</v>
       </c>
       <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
         <v>100</v>
       </c>
-      <c r="Y54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3862,13 +3992,16 @@
         <v>0</v>
       </c>
       <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
         <v>100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3876,7 +4009,7 @@
         <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -3921,7 +4054,7 @@
         <v>100</v>
       </c>
       <c r="T58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3936,10 +4069,13 @@
         <v>0</v>
       </c>
       <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4004,13 +4140,16 @@
         <v>0</v>
       </c>
       <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
         <v>100</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4045,7 +4184,7 @@
         <v>200</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
@@ -4078,10 +4217,13 @@
         <v>100</v>
       </c>
       <c r="Y60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,8 +4589,11 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4471,7 +4628,7 @@
         <v>200</v>
       </c>
       <c r="N66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>100</v>
@@ -4504,10 +4661,13 @@
         <v>100</v>
       </c>
       <c r="Y66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,8 +4987,11 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4835,10 +5008,10 @@
         <v>-19200</v>
       </c>
       <c r="H72" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="I72" s="3">
         <v>-19100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-19200</v>
       </c>
       <c r="J72" s="3">
         <v>-19200</v>
@@ -4856,7 +5029,7 @@
         <v>-19200</v>
       </c>
       <c r="O72" s="3">
-        <v>-19100</v>
+        <v>-19200</v>
       </c>
       <c r="P72" s="3">
         <v>-19100</v>
@@ -4886,10 +5059,13 @@
         <v>-19100</v>
       </c>
       <c r="Y72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,8 +5283,11 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5137,7 +5322,7 @@
         <v>-200</v>
       </c>
       <c r="N76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O76" s="3">
         <v>-100</v>
@@ -5170,10 +5355,13 @@
         <v>-100</v>
       </c>
       <c r="Y76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,84 +5431,90 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5390,8 +5584,11 @@
       <c r="Y81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,16 +5614,17 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
@@ -5443,8 +5641,8 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -5488,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5906,16 +6122,19 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,16 +6160,17 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
@@ -5967,8 +6187,8 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -6012,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,16 +6380,19 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
@@ -6180,8 +6409,8 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -6225,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,17 +6778,20 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -6602,13 +6847,16 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6741,12 +6992,15 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARRT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
   <si>
     <t>ARRT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,13 +1183,16 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1180,8 +1200,8 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1195,8 +1215,8 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1240,19 +1260,22 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
+      <c r="F15" s="3">
+        <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
@@ -1269,8 +1292,8 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,8 +1365,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1413,8 +1440,11 @@
       <c r="Z17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1487,8 +1517,11 @@
       <c r="Z18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1589,8 +1623,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1663,8 +1700,11 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,13 +1777,16 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1811,8 +1854,11 @@
       <c r="Z23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,13 +2008,16 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -2033,13 +2085,16 @@
       <c r="Z26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2107,8 +2162,11 @@
       <c r="Z27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2477,13 +2547,16 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2551,8 +2624,11 @@
       <c r="Z33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,13 +2701,16 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2699,87 +2778,93 @@
       <c r="Z35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,8 +2920,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2903,13 +2990,16 @@
         <v>0</v>
       </c>
       <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
         <v>100</v>
       </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,16 +3149,19 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -3100,8 +3196,8 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
+      <c r="Q44" s="3">
+        <v>0</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>4</v>
@@ -3118,8 +3214,8 @@
       <c r="V44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W44" s="3">
-        <v>0</v>
+      <c r="W44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X44" s="3">
         <v>0</v>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3204,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3273,13 +3375,16 @@
         <v>0</v>
       </c>
       <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
         <v>100</v>
       </c>
-      <c r="Z46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3437,8 +3548,8 @@
       <c r="E49" s="3">
         <v>0</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+      <c r="F49" s="3">
+        <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
@@ -3455,8 +3566,8 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,8 +3919,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3865,13 +3991,16 @@
         <v>0</v>
       </c>
       <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
         <v>100</v>
       </c>
-      <c r="Z54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3995,13 +4126,16 @@
         <v>0</v>
       </c>
       <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
         <v>100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4012,7 +4146,7 @@
         <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -4057,7 +4191,7 @@
         <v>100</v>
       </c>
       <c r="U58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4072,10 +4206,13 @@
         <v>0</v>
       </c>
       <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4143,13 +4280,16 @@
         <v>0</v>
       </c>
       <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
         <v>100</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4187,7 +4327,7 @@
         <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
@@ -4220,10 +4360,13 @@
         <v>100</v>
       </c>
       <c r="Z60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,13 +4747,16 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>200</v>
+      <c r="D66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
@@ -4631,7 +4789,7 @@
         <v>200</v>
       </c>
       <c r="O66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>100</v>
@@ -4664,10 +4822,13 @@
         <v>100</v>
       </c>
       <c r="Z66" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,8 +5161,11 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5011,10 +5185,10 @@
         <v>-19200</v>
       </c>
       <c r="I72" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="J72" s="3">
         <v>-19100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-19200</v>
       </c>
       <c r="K72" s="3">
         <v>-19200</v>
@@ -5032,7 +5206,7 @@
         <v>-19200</v>
       </c>
       <c r="P72" s="3">
-        <v>-19100</v>
+        <v>-19200</v>
       </c>
       <c r="Q72" s="3">
         <v>-19100</v>
@@ -5062,10 +5236,13 @@
         <v>-19100</v>
       </c>
       <c r="Z72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,8 +5469,11 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5325,7 +5511,7 @@
         <v>-200</v>
       </c>
       <c r="O76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P76" s="3">
         <v>-100</v>
@@ -5358,10 +5544,13 @@
         <v>-100</v>
       </c>
       <c r="Z76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,92 +5623,98 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -5587,8 +5782,11 @@
       <c r="Z81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,13 +5813,14 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5644,8 +5843,8 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,13 +6273,16 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -6125,16 +6342,19 @@
         <v>0</v>
       </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,13 +6381,14 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -6190,8 +6411,8 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,13 +6610,16 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -6412,8 +6642,8 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,13 +7024,16 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
@@ -6850,13 +7096,16 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,13 +7178,16 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -6995,12 +7247,15 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARRT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>ARRT</t>
   </si>
@@ -1268,8 +1268,8 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1637,8 +1637,8 @@
       <c r="E21" s="3">
         <v>0</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="F21" s="3">
+        <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1785,8 +1785,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -2016,8 +2016,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -2093,8 +2093,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2555,8 +2555,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2709,8 +2709,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -4755,8 +4755,8 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>200</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
@@ -5713,8 +5713,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -5819,14 +5819,14 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -6281,8 +6281,8 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
+      <c r="D89" s="3">
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -6387,14 +6387,14 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -6618,14 +6618,14 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -7032,14 +7032,14 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -7186,8 +7186,8 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/ARRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARRT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>ARRT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,16 +1203,19 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1203,8 +1223,8 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -1218,8 +1238,8 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1277,8 +1300,8 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
@@ -1295,8 +1318,8 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1443,8 +1470,11 @@
       <c r="AA17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1520,8 +1550,11 @@
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,8 +1660,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1640,8 +1677,8 @@
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+      <c r="G21" s="3">
+        <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,8 +1820,11 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1857,8 +1900,11 @@
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,8 +2060,11 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2088,8 +2140,11 @@
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2165,8 +2220,11 @@
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2550,8 +2620,11 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2627,8 +2700,11 @@
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,8 +2780,11 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2781,90 +2860,96 @@
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2993,13 +3080,16 @@
         <v>0</v>
       </c>
       <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
         <v>100</v>
       </c>
-      <c r="AA41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,19 +3245,22 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>0</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -3199,8 +3295,8 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
+      <c r="R44" s="3">
+        <v>0</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>4</v>
@@ -3217,8 +3313,8 @@
       <c r="W44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X44" s="3">
-        <v>0</v>
+      <c r="X44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y44" s="3">
         <v>0</v>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3378,13 +3480,16 @@
         <v>0</v>
       </c>
       <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
         <v>100</v>
       </c>
-      <c r="AA46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3551,8 +3662,8 @@
       <c r="F49" s="3">
         <v>0</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
+      <c r="G49" s="3">
+        <v>0</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
@@ -3569,8 +3680,8 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4045,11 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3994,13 +4120,16 @@
         <v>0</v>
       </c>
       <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
         <v>100</v>
       </c>
-      <c r="AA54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4129,13 +4260,16 @@
         <v>0</v>
       </c>
       <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
         <v>100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4149,7 +4283,7 @@
         <v>200</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
@@ -4194,7 +4328,7 @@
         <v>100</v>
       </c>
       <c r="V58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4209,10 +4343,13 @@
         <v>0</v>
       </c>
       <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4283,13 +4420,16 @@
         <v>0</v>
       </c>
       <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
         <v>100</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4330,7 +4470,7 @@
         <v>200</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
@@ -4363,10 +4503,13 @@
         <v>100</v>
       </c>
       <c r="AA60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,8 +4905,11 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4792,7 +4950,7 @@
         <v>200</v>
       </c>
       <c r="P66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q66" s="3">
         <v>100</v>
@@ -4825,10 +4983,13 @@
         <v>100</v>
       </c>
       <c r="AA66" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5335,11 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5188,10 +5362,10 @@
         <v>-19200</v>
       </c>
       <c r="J72" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-19100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-19200</v>
       </c>
       <c r="L72" s="3">
         <v>-19200</v>
@@ -5209,7 +5383,7 @@
         <v>-19200</v>
       </c>
       <c r="Q72" s="3">
-        <v>-19100</v>
+        <v>-19200</v>
       </c>
       <c r="R72" s="3">
         <v>-19100</v>
@@ -5239,10 +5413,13 @@
         <v>-19100</v>
       </c>
       <c r="AA72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,8 +5655,11 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5514,7 +5700,7 @@
         <v>-200</v>
       </c>
       <c r="P76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q76" s="3">
         <v>-100</v>
@@ -5547,10 +5733,13 @@
         <v>-100</v>
       </c>
       <c r="AA76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,90 +5815,96 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5785,8 +5980,11 @@
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5828,8 +6027,8 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
@@ -5846,8 +6045,8 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6345,16 +6562,19 @@
         <v>0</v>
       </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6396,8 +6617,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -6414,8 +6635,8 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6627,8 +6857,8 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -6645,8 +6875,8 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7039,11 +7285,11 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -7099,13 +7345,16 @@
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7250,12 +7502,15 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARRT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
   <si>
     <t>ARRT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,126 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -856,16 +863,22 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -936,16 +949,22 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -1016,8 +1035,14 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,13 +1239,19 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -1220,17 +1259,17 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1241,11 +1280,11 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1303,11 +1348,11 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
@@ -1321,11 +1366,11 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1444,10 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1473,8 +1526,14 @@
       <c r="AB17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1553,8 +1612,14 @@
       <c r="AB18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1663,8 +1730,14 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1680,11 +1753,11 @@
       <c r="G21" s="3">
         <v>0</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1743,8 +1816,14 @@
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,8 +1902,14 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1903,8 +1988,14 @@
       <c r="AB23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,8 +2160,14 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2143,8 +2246,14 @@
       <c r="AB26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2223,8 +2332,14 @@
       <c r="AB27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2623,8 +2762,14 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2703,8 +2848,14 @@
       <c r="AB33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,8 +2934,14 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2863,93 +3020,105 @@
       <c r="AB35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3179,10 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3083,13 +3256,19 @@
         <v>0</v>
       </c>
       <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
         <v>100</v>
       </c>
-      <c r="AB41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3347,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3179,20 +3364,20 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -3248,25 +3433,31 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -3298,11 +3489,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>4</v>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>4</v>
@@ -3316,11 +3507,11 @@
       <c r="X44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>0</v>
+      <c r="Y44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA44" s="3">
         <v>0</v>
@@ -3328,8 +3519,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,8 +3605,14 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3483,13 +3686,19 @@
         <v>0</v>
       </c>
       <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
         <v>100</v>
       </c>
-      <c r="AB46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3777,14 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3648,8 +3863,14 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3665,11 +3886,11 @@
       <c r="G49" s="3">
         <v>0</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -3683,11 +3904,11 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,8 +4293,14 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4123,13 +4374,19 @@
         <v>0</v>
       </c>
       <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="3">
         <v>100</v>
       </c>
-      <c r="AB54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4447,10 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4197,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -4263,13 +4524,19 @@
         <v>0</v>
       </c>
       <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
         <v>100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4286,10 +4553,10 @@
         <v>200</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -4331,10 +4598,10 @@
         <v>100</v>
       </c>
       <c r="W58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4346,10 +4613,16 @@
         <v>0</v>
       </c>
       <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4423,21 +4696,27 @@
         <v>0</v>
       </c>
       <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
         <v>100</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
@@ -4473,10 +4752,10 @@
         <v>200</v>
       </c>
       <c r="Q60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S60" s="3">
         <v>100</v>
@@ -4506,10 +4785,16 @@
         <v>100</v>
       </c>
       <c r="AB60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,8 +4873,14 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,16 +5217,22 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F66" s="3">
         <v>200</v>
@@ -4953,10 +5268,10 @@
         <v>200</v>
       </c>
       <c r="Q66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S66" s="3">
         <v>100</v>
@@ -4986,10 +5301,16 @@
         <v>100</v>
       </c>
       <c r="AB66" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,8 +5679,14 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5365,13 +5712,13 @@
         <v>-19200</v>
       </c>
       <c r="K72" s="3">
-        <v>-19100</v>
+        <v>-19200</v>
       </c>
       <c r="L72" s="3">
         <v>-19200</v>
       </c>
       <c r="M72" s="3">
-        <v>-19200</v>
+        <v>-19100</v>
       </c>
       <c r="N72" s="3">
         <v>-19200</v>
@@ -5386,10 +5733,10 @@
         <v>-19200</v>
       </c>
       <c r="R72" s="3">
-        <v>-19100</v>
+        <v>-19200</v>
       </c>
       <c r="S72" s="3">
-        <v>-19100</v>
+        <v>-19200</v>
       </c>
       <c r="T72" s="3">
         <v>-19100</v>
@@ -5416,10 +5763,16 @@
         <v>-19100</v>
       </c>
       <c r="AB72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="AD72" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,8 +6023,14 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5703,10 +6074,10 @@
         <v>-200</v>
       </c>
       <c r="Q76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S76" s="3">
         <v>-100</v>
@@ -5736,10 +6107,16 @@
         <v>-100</v>
       </c>
       <c r="AB76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,93 +6195,105 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5983,8 +6372,14 @@
       <c r="AB81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6030,11 +6427,11 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -6048,11 +6445,11 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6920,14 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6565,16 +6998,22 @@
         <v>0</v>
       </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,16 +7042,18 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -6620,11 +7061,11 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -6638,11 +7079,11 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7296,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6860,11 +7319,11 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -6878,11 +7337,11 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7758,14 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7288,14 +7779,14 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -7348,13 +7839,19 @@
         <v>0</v>
       </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>100</v>
       </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7930,14 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7505,12 +8008,18 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARRT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARRT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -869,8 +873,11 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -880,8 +887,8 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -966,8 +976,8 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1256,14 +1276,14 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1271,8 +1291,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1286,8 +1306,8 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1354,8 +1377,8 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1372,8 +1395,8 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,8 +1472,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1532,8 +1559,11 @@
       <c r="AD17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1618,8 +1648,11 @@
       <c r="AD18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1736,8 +1770,11 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1759,8 +1796,8 @@
       <c r="I21" s="3">
         <v>0</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="J21" s="3">
+        <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1822,8 +1859,11 @@
       <c r="AD21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,8 +1948,11 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1994,8 +2037,11 @@
       <c r="AD23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,8 +2215,11 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2252,8 +2304,11 @@
       <c r="AD26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2338,8 +2393,11 @@
       <c r="AD27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2768,8 +2838,11 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2854,8 +2927,11 @@
       <c r="AD33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,8 +3016,11 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -3026,99 +3105,105 @@
       <c r="AD35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,8 +3267,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3262,13 +3349,16 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
         <v>100</v>
       </c>
-      <c r="AD41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3364,8 +3457,8 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -3379,8 +3472,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3453,14 +3549,14 @@
       <c r="F44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -3495,8 +3591,8 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>4</v>
+      <c r="U44" s="3">
+        <v>0</v>
       </c>
       <c r="V44" s="3" t="s">
         <v>4</v>
@@ -3513,8 +3609,8 @@
       <c r="Z44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA44" s="3">
-        <v>0</v>
+      <c r="AA44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB44" s="3">
         <v>0</v>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3611,8 +3710,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3692,13 +3794,16 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
         <v>100</v>
       </c>
-      <c r="AD46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3892,8 +4003,8 @@
       <c r="I49" s="3">
         <v>0</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
@@ -3910,8 +4021,8 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,8 +4422,11 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4380,13 +4506,16 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="3">
         <v>100</v>
       </c>
-      <c r="AD54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4458,11 +4589,11 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
@@ -4530,13 +4661,16 @@
         <v>0</v>
       </c>
       <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
         <v>100</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4559,7 +4693,7 @@
         <v>200</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -4604,7 +4738,7 @@
         <v>100</v>
       </c>
       <c r="Y58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4619,10 +4753,13 @@
         <v>0</v>
       </c>
       <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4702,13 +4839,16 @@
         <v>0</v>
       </c>
       <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
         <v>100</v>
       </c>
-      <c r="AD59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4719,7 +4859,7 @@
         <v>300</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
@@ -4758,7 +4898,7 @@
         <v>200</v>
       </c>
       <c r="S60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T60" s="3">
         <v>100</v>
@@ -4791,10 +4931,13 @@
         <v>100</v>
       </c>
       <c r="AD60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,8 +5378,11 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5235,7 +5393,7 @@
         <v>300</v>
       </c>
       <c r="F66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G66" s="3">
         <v>200</v>
@@ -5274,7 +5432,7 @@
         <v>200</v>
       </c>
       <c r="S66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T66" s="3">
         <v>100</v>
@@ -5307,10 +5465,13 @@
         <v>100</v>
       </c>
       <c r="AD66" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,13 +5856,16 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-19200</v>
+        <v>-19300</v>
       </c>
       <c r="E72" s="3">
         <v>-19200</v>
@@ -5718,10 +5892,10 @@
         <v>-19200</v>
       </c>
       <c r="M72" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="N72" s="3">
         <v>-19100</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-19200</v>
       </c>
       <c r="O72" s="3">
         <v>-19200</v>
@@ -5739,7 +5913,7 @@
         <v>-19200</v>
       </c>
       <c r="T72" s="3">
-        <v>-19100</v>
+        <v>-19200</v>
       </c>
       <c r="U72" s="3">
         <v>-19100</v>
@@ -5769,10 +5943,13 @@
         <v>-19100</v>
       </c>
       <c r="AD72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="AE72" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,13 +6212,16 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E76" s="3">
         <v>-200</v>
@@ -6080,7 +6266,7 @@
         <v>-200</v>
       </c>
       <c r="S76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T76" s="3">
         <v>-100</v>
@@ -6113,10 +6299,13 @@
         <v>-100</v>
       </c>
       <c r="AD76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE76" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,99 +6390,105 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6378,8 +6573,11 @@
       <c r="AD81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6433,8 +6632,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -6451,8 +6650,8 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7004,16 +7221,19 @@
         <v>0</v>
       </c>
       <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
-      <c r="AC89" s="3">
-        <v>0</v>
-      </c>
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,16 +7264,17 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -7067,8 +7288,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -7085,8 +7306,8 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7325,8 +7555,8 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -7343,8 +7573,8 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7785,11 +8031,11 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -7845,13 +8091,16 @@
         <v>0</v>
       </c>
       <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>100</v>
       </c>
-      <c r="AD100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8014,12 +8266,15 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
